--- a/ResultadoEleicoesDistritos/PORTO_VALONGO.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_VALONGO.xlsx
@@ -597,64 +597,64 @@
         <v>25403</v>
       </c>
       <c r="H2" t="n">
-        <v>932</v>
+        <v>975</v>
       </c>
       <c r="I2" t="n">
-        <v>2488</v>
+        <v>2481</v>
       </c>
       <c r="J2" t="n">
-        <v>10732</v>
+        <v>10393</v>
       </c>
       <c r="K2" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L2" t="n">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="M2" t="n">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="N2" t="n">
-        <v>1857</v>
+        <v>1806</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R2" t="n">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="S2" t="n">
-        <v>1180</v>
+        <v>1072</v>
       </c>
       <c r="T2" t="n">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="U2" t="n">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="V2" t="n">
-        <v>16121</v>
+        <v>16323</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>16037</v>
+        <v>16332</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="AA2" t="n">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
